--- a/Assets/BTC.xlsx
+++ b/Assets/BTC.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-18 17:51:25</t>
+          <t>2025-11-18 18:25:28</t>
         </is>
       </c>
     </row>

--- a/Assets/BTC.xlsx
+++ b/Assets/BTC.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-18 18:25:28</t>
+          <t>2025-11-18 19:13:09</t>
         </is>
       </c>
     </row>
